--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H2">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I2">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J2">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N2">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O2">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P2">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q2">
-        <v>0.1941025855791111</v>
+        <v>0.27839070864</v>
       </c>
       <c r="R2">
-        <v>1.746923270212</v>
+        <v>2.50551637776</v>
       </c>
       <c r="S2">
-        <v>1.351070583434522E-05</v>
+        <v>1.318295007686489E-05</v>
       </c>
       <c r="T2">
-        <v>1.351070583434522E-05</v>
+        <v>1.31829500768649E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H3">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I3">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J3">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.243407</v>
       </c>
       <c r="O3">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P3">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q3">
-        <v>0.1475900237665556</v>
+        <v>0.12744547113</v>
       </c>
       <c r="R3">
-        <v>1.328310213899</v>
+        <v>1.14700924017</v>
       </c>
       <c r="S3">
-        <v>1.027315215428303E-05</v>
+        <v>6.035069531009176E-06</v>
       </c>
       <c r="T3">
-        <v>1.027315215428303E-05</v>
+        <v>6.035069531009176E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H4">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I4">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J4">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N4">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O4">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P4">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q4">
-        <v>105.2857516063039</v>
+        <v>431.1978882141301</v>
       </c>
       <c r="R4">
-        <v>947.5717644567351</v>
+        <v>3880.780993927171</v>
       </c>
       <c r="S4">
-        <v>0.007328520711131609</v>
+        <v>0.02041900127107793</v>
       </c>
       <c r="T4">
-        <v>0.007328520711131609</v>
+        <v>0.02041900127107793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H5">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I5">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J5">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N5">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O5">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P5">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q5">
-        <v>0.119822796249</v>
+        <v>0.06658179876000002</v>
       </c>
       <c r="R5">
-        <v>1.078405166241</v>
+        <v>0.5992361888400001</v>
       </c>
       <c r="S5">
-        <v>8.340386335086224E-06</v>
+        <v>3.152923218482832E-06</v>
       </c>
       <c r="T5">
-        <v>8.340386335086224E-06</v>
+        <v>3.152923218482832E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H6">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I6">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J6">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N6">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O6">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P6">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q6">
-        <v>306.961954299039</v>
+        <v>113.68912089894</v>
       </c>
       <c r="R6">
-        <v>2762.657588691351</v>
+        <v>1023.20208809046</v>
       </c>
       <c r="S6">
-        <v>0.02136639578754976</v>
+        <v>0.005383649520543078</v>
       </c>
       <c r="T6">
-        <v>0.02136639578754976</v>
+        <v>0.005383649520543078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>170.579399</v>
       </c>
       <c r="I7">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J7">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N7">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O7">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P7">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q7">
-        <v>6.067243876698223</v>
+        <v>10.07737601452267</v>
       </c>
       <c r="R7">
-        <v>54.60519489028401</v>
+        <v>90.696384130704</v>
       </c>
       <c r="S7">
-        <v>0.0004223166167453862</v>
+        <v>0.0004772053835928913</v>
       </c>
       <c r="T7">
-        <v>0.0004223166167453862</v>
+        <v>0.0004772053835928914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>170.579399</v>
       </c>
       <c r="I8">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J8">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.243407</v>
       </c>
       <c r="O8">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P8">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q8">
         <v>4.613357752488112</v>
@@ -948,10 +948,10 @@
         <v>41.52021977239301</v>
       </c>
       <c r="S8">
-        <v>0.0003211174097269246</v>
+        <v>0.0002184615472077934</v>
       </c>
       <c r="T8">
-        <v>0.0003211174097269246</v>
+        <v>0.0002184615472077934</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>170.579399</v>
       </c>
       <c r="I9">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J9">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N9">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O9">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P9">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q9">
-        <v>3291.014026583183</v>
+        <v>15608.7941204283</v>
       </c>
       <c r="R9">
-        <v>29619.12623924865</v>
+        <v>140479.1470838547</v>
       </c>
       <c r="S9">
-        <v>0.2290743437405013</v>
+        <v>0.7391408810117989</v>
       </c>
       <c r="T9">
-        <v>0.2290743437405013</v>
+        <v>0.7391408810117989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>170.579399</v>
       </c>
       <c r="I10">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J10">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N10">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O10">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P10">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q10">
-        <v>3.745411863843001</v>
+        <v>2.410173188270667</v>
       </c>
       <c r="R10">
-        <v>33.708706774587</v>
+        <v>21.691558694436</v>
       </c>
       <c r="S10">
-        <v>0.0002607031625564045</v>
+        <v>0.0001141316568099185</v>
       </c>
       <c r="T10">
-        <v>0.0002607031625564045</v>
+        <v>0.0001141316568099185</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>170.579399</v>
       </c>
       <c r="I11">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J11">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N11">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O11">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P11">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q11">
-        <v>9594.993451754373</v>
+        <v>4115.396040536282</v>
       </c>
       <c r="R11">
-        <v>86354.94106578937</v>
+        <v>37038.56436482654</v>
       </c>
       <c r="S11">
-        <v>0.6678691766127253</v>
+        <v>0.1948810030835994</v>
       </c>
       <c r="T11">
-        <v>0.6678691766127253</v>
+        <v>0.1948810030835994</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H12">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I12">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J12">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N12">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O12">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P12">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q12">
-        <v>0.171956071488</v>
+        <v>0.1643607623093333</v>
       </c>
       <c r="R12">
-        <v>1.547604643392</v>
+        <v>1.479246860784</v>
       </c>
       <c r="S12">
-        <v>1.196917543046901E-05</v>
+        <v>7.783161064191034E-06</v>
       </c>
       <c r="T12">
-        <v>1.196917543046901E-05</v>
+        <v>7.783161064191035E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H13">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I13">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J13">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.243407</v>
       </c>
       <c r="O13">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P13">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q13">
-        <v>0.130750451376</v>
+        <v>0.07524329705588891</v>
       </c>
       <c r="R13">
-        <v>1.176754062384</v>
+        <v>0.6771896735030001</v>
       </c>
       <c r="S13">
-        <v>9.101016768934294E-06</v>
+        <v>3.563080943154637E-06</v>
       </c>
       <c r="T13">
-        <v>9.101016768934294E-06</v>
+        <v>3.563080943154637E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H14">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I14">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J14">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N14">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O14">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P14">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q14">
-        <v>93.27296787863999</v>
+        <v>254.5775107196448</v>
       </c>
       <c r="R14">
-        <v>839.45671090776</v>
+        <v>2291.197596476803</v>
       </c>
       <c r="S14">
-        <v>0.006492358808847591</v>
+        <v>0.01205529678380726</v>
       </c>
       <c r="T14">
-        <v>0.006492358808847591</v>
+        <v>0.01205529678380726</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H15">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I15">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J15">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N15">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O15">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P15">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q15">
-        <v>0.106151379984</v>
+        <v>0.03930962801733334</v>
       </c>
       <c r="R15">
-        <v>0.9553624198559999</v>
+        <v>0.353786652156</v>
       </c>
       <c r="S15">
-        <v>7.388773645619939E-06</v>
+        <v>1.861473273387027E-06</v>
       </c>
       <c r="T15">
-        <v>7.388773645619939E-06</v>
+        <v>1.861473273387027E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H16">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I16">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J16">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N16">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O16">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P16">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q16">
-        <v>271.938529824624</v>
+        <v>67.12160283119046</v>
       </c>
       <c r="R16">
-        <v>2447.446768421616</v>
+        <v>604.0944254807141</v>
       </c>
       <c r="S16">
-        <v>0.01892855507577641</v>
+        <v>0.003178485171166369</v>
       </c>
       <c r="T16">
-        <v>0.01892855507577641</v>
+        <v>0.003178485171166369</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.246467333333333</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H17">
-        <v>3.739402</v>
+        <v>2.343024</v>
       </c>
       <c r="I17">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J17">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N17">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O17">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P17">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q17">
-        <v>0.1330047122924445</v>
+        <v>0.138419609856</v>
       </c>
       <c r="R17">
-        <v>1.197042410632</v>
+        <v>1.245776488704</v>
       </c>
       <c r="S17">
-        <v>9.257926868946995E-06</v>
+        <v>6.554740333487459E-06</v>
       </c>
       <c r="T17">
-        <v>9.257926868946995E-06</v>
+        <v>6.55474033348746E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.246467333333333</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H18">
-        <v>3.739402</v>
+        <v>2.343024</v>
       </c>
       <c r="I18">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J18">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.243407</v>
       </c>
       <c r="O18">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P18">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q18">
-        <v>0.1011329580682222</v>
+        <v>0.063367604752</v>
       </c>
       <c r="R18">
-        <v>0.910196622614</v>
+        <v>0.570308442768</v>
       </c>
       <c r="S18">
-        <v>7.039461337108365E-06</v>
+        <v>3.000717854475457E-06</v>
       </c>
       <c r="T18">
-        <v>7.039461337108365E-06</v>
+        <v>3.000717854475457E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.246467333333333</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H19">
-        <v>3.739402</v>
+        <v>2.343024</v>
       </c>
       <c r="I19">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J19">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N19">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O19">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P19">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q19">
-        <v>72.14484577374554</v>
+        <v>214.397397631952</v>
       </c>
       <c r="R19">
-        <v>649.30361196371</v>
+        <v>1929.576578687568</v>
       </c>
       <c r="S19">
-        <v>0.005021714604188035</v>
+        <v>0.01015260244639383</v>
       </c>
       <c r="T19">
-        <v>0.005021714604188035</v>
+        <v>0.01015260244639383</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.246467333333333</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H20">
-        <v>3.739402</v>
+        <v>2.343024</v>
       </c>
       <c r="I20">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J20">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N20">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O20">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P20">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q20">
-        <v>0.082106049714</v>
+        <v>0.033105367104</v>
       </c>
       <c r="R20">
-        <v>0.7389544474259999</v>
+        <v>0.297948303936</v>
       </c>
       <c r="S20">
-        <v>5.715074230445284E-06</v>
+        <v>1.567675889545152E-06</v>
       </c>
       <c r="T20">
-        <v>5.715074230445284E-06</v>
+        <v>1.567675889545152E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.246467333333333</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H21">
-        <v>3.739402</v>
+        <v>2.343024</v>
       </c>
       <c r="I21">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J21">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N21">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O21">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P21">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q21">
-        <v>210.339219822654</v>
+        <v>56.52776213897599</v>
       </c>
       <c r="R21">
-        <v>1893.052978403886</v>
+        <v>508.749859250784</v>
       </c>
       <c r="S21">
-        <v>0.01464087310311122</v>
+        <v>0.00267682305158636</v>
       </c>
       <c r="T21">
-        <v>0.01464087310311122</v>
+        <v>0.00267682305158636</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.78513</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H22">
-        <v>5.35539</v>
+        <v>2.053846</v>
       </c>
       <c r="I22">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J22">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N22">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O22">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P22">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q22">
-        <v>0.1904828916933333</v>
+        <v>0.1213357447573333</v>
       </c>
       <c r="R22">
-        <v>1.71434602524</v>
+        <v>1.092021702816</v>
       </c>
       <c r="S22">
-        <v>1.325875339818774E-05</v>
+        <v>5.745748748186909E-06</v>
       </c>
       <c r="T22">
-        <v>1.325875339818774E-05</v>
+        <v>5.74574874818691E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.78513</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H23">
-        <v>5.35539</v>
+        <v>2.053846</v>
       </c>
       <c r="I23">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J23">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.243407</v>
       </c>
       <c r="O23">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P23">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q23">
-        <v>0.1448377126366667</v>
+        <v>0.05554672148022223</v>
       </c>
       <c r="R23">
-        <v>1.30353941373</v>
+        <v>0.4999204933220001</v>
       </c>
       <c r="S23">
-        <v>1.008157476787378E-05</v>
+        <v>2.630366723748028E-06</v>
       </c>
       <c r="T23">
-        <v>1.008157476787379E-05</v>
+        <v>2.630366723748028E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.78513</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H24">
-        <v>5.35539</v>
+        <v>2.053846</v>
       </c>
       <c r="I24">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J24">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N24">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O24">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P24">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q24">
-        <v>103.3223455537166</v>
+        <v>187.9362898275025</v>
       </c>
       <c r="R24">
-        <v>929.9011099834499</v>
+        <v>1691.426608447522</v>
       </c>
       <c r="S24">
-        <v>0.007191855856664395</v>
+        <v>0.008899559681896634</v>
       </c>
       <c r="T24">
-        <v>0.007191855856664396</v>
+        <v>0.008899559681896634</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.78513</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H25">
-        <v>5.35539</v>
+        <v>2.053846</v>
       </c>
       <c r="I25">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J25">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N25">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O25">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P25">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q25">
-        <v>0.11758829823</v>
+        <v>0.02901947474933333</v>
       </c>
       <c r="R25">
-        <v>1.05829468407</v>
+        <v>0.261175272744</v>
       </c>
       <c r="S25">
-        <v>8.184851851441586E-06</v>
+        <v>1.374192007866225E-06</v>
       </c>
       <c r="T25">
-        <v>8.184851851441586E-06</v>
+        <v>1.374192007866225E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.78513</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H26">
-        <v>5.35539</v>
+        <v>2.053846</v>
       </c>
       <c r="I26">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J26">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N26">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O26">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P26">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q26">
-        <v>301.2376188615299</v>
+        <v>49.55105801651511</v>
       </c>
       <c r="R26">
-        <v>2711.13856975377</v>
+        <v>445.959522148636</v>
       </c>
       <c r="S26">
-        <v>0.020967947657853</v>
+        <v>0.002346447290855083</v>
       </c>
       <c r="T26">
-        <v>0.020967947657853</v>
+        <v>0.002346447290855083</v>
       </c>
     </row>
   </sheetData>
